--- a/صيدليات دكتور مصطفي طلعت_2026-01-05_11-52.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-05_11-52.xlsx
@@ -128,6 +128,12 @@
     <t>1:2</t>
   </si>
   <si>
+    <t>TERRAMYCIN EYE OINT. 5 GM</t>
+  </si>
+  <si>
+    <t>5:0</t>
+  </si>
+  <si>
     <t>TIAPAIR 20 TABS</t>
   </si>
   <si>
@@ -141,6 +147,12 @@
   </si>
   <si>
     <t>7815:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>14:0</t>
   </si>
   <si>
     <t xml:space="preserve">بلاستر 2سم </t>
@@ -1309,13 +1321,13 @@
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
       <c t="s" r="H25" s="8">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="I25" s="8"/>
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="M25" s="9"/>
       <c r="N25" s="10">
@@ -1327,7 +1339,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1335,13 +1347,13 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="M26" s="9"/>
       <c r="N26" s="10">
@@ -1353,7 +1365,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1361,13 +1373,13 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="M27" s="9"/>
       <c r="N27" s="10">
@@ -1379,7 +1391,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1387,17 +1399,17 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>5</v>
+        <v>175</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" ht="24.75" customHeight="1">
@@ -1419,11 +1431,11 @@
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" ht="25.5" customHeight="1">
@@ -1445,7 +1457,7 @@
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>2</v>
+        <v>23.5</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="10">
@@ -1471,7 +1483,7 @@
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="10">
@@ -1497,7 +1509,7 @@
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="M32" s="9"/>
       <c r="N32" s="10">
@@ -1517,51 +1529,103 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
       <c r="K33" s="8"/>
       <c r="L33" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M33" s="9"/>
       <c r="N33" s="10">
         <v>1</v>
       </c>
     </row>
-    <row r="34" ht="25.5" customHeight="1">
-      <c r="K34" s="11">
-        <v>2233.3499999999999</v>
-      </c>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c t="s" r="A35" s="12">
-        <v>53</v>
-      </c>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c t="s" r="F35" s="13">
+    <row r="34" ht="24.75" customHeight="1">
+      <c r="A34" s="6">
+        <v>31</v>
+      </c>
+      <c t="s" r="B34" s="7">
         <v>54</v>
       </c>
-      <c r="G35" s="13"/>
-      <c r="H35" s="14"/>
-      <c t="s" r="I35" s="15">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c t="s" r="H34" s="8">
         <v>55</v>
       </c>
-      <c r="J35" s="15"/>
-      <c r="K35" s="15"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="15"/>
-      <c r="N35" s="15"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9">
+        <v>25</v>
+      </c>
+      <c r="M34" s="9"/>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" ht="25.5" customHeight="1">
+      <c r="A35" s="6">
+        <v>32</v>
+      </c>
+      <c t="s" r="B35" s="7">
+        <v>56</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c t="s" r="H35" s="8">
+        <v>49</v>
+      </c>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9">
+        <v>20</v>
+      </c>
+      <c r="M35" s="9"/>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" ht="25.5" customHeight="1">
+      <c r="K36" s="11">
+        <v>2284.8499999999999</v>
+      </c>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" ht="16.5" customHeight="1">
+      <c t="s" r="A37" s="12">
+        <v>57</v>
+      </c>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c t="s" r="F37" s="13">
+        <v>58</v>
+      </c>
+      <c r="G37" s="13"/>
+      <c r="H37" s="14"/>
+      <c t="s" r="I37" s="15">
+        <v>59</v>
+      </c>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="101">
+  <mergeCells count="107">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1659,10 +1723,16 @@
     <mergeCell ref="B33:G33"/>
     <mergeCell ref="H33:K33"/>
     <mergeCell ref="L33:M33"/>
-    <mergeCell ref="K34:N34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="I35:N35"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="H34:K34"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="H35:K35"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="K36:N36"/>
+    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="I37:N37"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
